--- a/data/unsd/dashboards/output/Dashboard Catalogue - 20190711.xlsx
+++ b/data/unsd/dashboards/output/Dashboard Catalogue - 20190711.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L.GonzalezMorales\Documents\GitHub\FIS4SDGs\data\unsd\dashboards\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EA5756-91CA-46B9-B38B-7034DAE4ECE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDE897-4D0F-4EC2-85E7-031A9342AEDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{6C1F2DE5-47B6-470A-AD59-7A7FFE553B67}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" xr2:uid="{6C1F2DE5-47B6-470A-AD59-7A7FFE553B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1318,24 +1318,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9769AC8-AA79-45F9-BEF1-EB94DCEB567D}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="7" width="40.5703125" customWidth="1"/>
-    <col min="8" max="8" width="104.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="7" width="40.5546875" customWidth="1"/>
+    <col min="8" max="8" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1487,14 +1487,8 @@
       <c r="H6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I6">
-        <v>0.6</v>
-      </c>
-      <c r="J6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1519,11 +1513,8 @@
       <c r="H7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1548,11 +1539,8 @@
       <c r="H8" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1577,11 +1565,8 @@
       <c r="H9" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1606,14 +1591,8 @@
       <c r="H10" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I10">
-        <v>1.4</v>
-      </c>
-      <c r="J10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1639,7 +1618,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1644,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1691,7 +1670,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1696,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1743,7 +1722,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -1769,7 +1748,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1795,7 +1774,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1821,7 +1800,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1847,7 +1826,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1873,7 +1852,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +1878,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1925,7 +1904,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1951,7 +1930,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -1977,7 +1956,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2003,7 +1982,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2029,7 +2008,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2055,7 +2034,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -2081,7 +2060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2107,7 +2086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2112,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2138,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2185,7 +2164,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2190,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2237,7 +2216,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2242,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2289,7 +2268,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -2315,7 +2294,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -2341,7 +2320,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2367,7 +2346,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2393,7 +2372,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2419,7 +2398,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -2445,7 +2424,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2471,7 +2450,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -2497,7 +2476,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -2523,7 +2502,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -2549,7 +2528,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +2554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -2601,7 +2580,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2627,7 +2606,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -2653,7 +2632,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2679,7 +2658,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -2705,7 +2684,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -2731,7 +2710,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -2757,7 +2736,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>81</v>
       </c>
